--- a/Datas/documents/source_publipostage.xlsx
+++ b/Datas/documents/source_publipostage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,27 +522,27 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18939</v>
+        <v>11821</v>
       </c>
       <c r="B2" t="n">
-        <v>721</v>
+        <v>1280</v>
       </c>
       <c r="C2" t="n">
         <v>300</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cédrick</t>
+          <t>Sébastien</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ODIOT</t>
+          <t>GUYENNET</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cedrick.ODIOT@fr.toyota-industries.eu</t>
+          <t>Sebastien.GUYENNET@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -552,70 +552,70 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AUTOPILOT</t>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>AGV</t>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1404-T2-TE-1</t>
+          <t>1404-T2-TE-61</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>BUSSY 2025 - Autopilots</t>
+          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>2217</v>
+        <v>2011</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-10-20 13:30</t>
+          <t>2025-09-01 13:30</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-10-24 12:00</t>
+          <t>2025-09-02 17:30</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13635</v>
+        <v>11672</v>
       </c>
       <c r="B3" t="n">
-        <v>721</v>
+        <v>1280</v>
       </c>
       <c r="C3" t="n">
         <v>300</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bruno</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AMATO</t>
+          <t>BODINEAU</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bruno.Amato@fr.toyota-industries.eu</t>
+          <t>Steven.Bodineau@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -625,70 +625,70 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AUTOPILOT</t>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>AGV</t>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1404-T2-TE-1</t>
+          <t>1404-T2-TE-61</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BUSSY 2025 - Autopilots</t>
+          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>2217</v>
+        <v>2011</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-10-20 13:30</t>
+          <t>2025-09-01 13:30</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-10-24 12:00</t>
+          <t>2025-09-02 17:30</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11786</v>
+        <v>11027</v>
       </c>
       <c r="B4" t="n">
-        <v>721</v>
+        <v>1280</v>
       </c>
       <c r="C4" t="n">
         <v>300</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stéphane</t>
+          <t>François-Xavier</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VILLETTE</t>
+          <t>LUBERT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stephane.VILLETTE@fr.toyota-industries.eu</t>
+          <t>Francois-Xavier.Lubert@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -698,337 +698,118 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>AUTOPILOT</t>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>AGV</t>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1404-T2-TE-1</t>
+          <t>1404-T2-TE-61</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BUSSY 2025 - Autopilots</t>
+          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>2217</v>
+        <v>2011</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-10-20 13:30</t>
+          <t>2025-09-01 13:30</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-10-24 12:00</t>
+          <t>2025-09-02 17:30</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11647</v>
+        <v>11368</v>
       </c>
       <c r="B5" t="n">
-        <v>721</v>
+        <v>1280</v>
       </c>
       <c r="C5" t="n">
         <v>300</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Rémi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DIMOS</t>
+          <t>BOIZUMEAU</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Thomas.DIMOS@fr.toyota-industries.eu</t>
+          <t>r.boizumeau@clenet-manutentionindustrie.fr</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Toyota Material Handling France S.A.S.</t>
+          <t>CMI</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AUTOPILOT</t>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AGV</t>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1404-T2-TE-1</t>
+          <t>1404-T2-TE-61</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BUSSY 2025 - Autopilots</t>
+          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>2217</v>
+        <v>2011</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-10-20 13:30</t>
+          <t>2025-09-01 13:30</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-10-24 12:00</t>
+          <t>2025-09-02 17:30</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>17622</v>
-      </c>
-      <c r="B6" t="n">
-        <v>721</v>
-      </c>
-      <c r="C6" t="n">
-        <v>300</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Nicolas</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>QUENTIN</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Nicolas.QUENTIN@fr.toyota-industries.eu</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Toyota Material Handling France S.A.S.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>AUTOPILOT</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>AGV</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1404-T2-TE-1</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>705</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>BUSSY 2025 - Autopilots</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2217</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2025-10-20 13:30</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>2025-10-24 12:00</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>11907</v>
-      </c>
-      <c r="B7" t="n">
-        <v>721</v>
-      </c>
-      <c r="C7" t="n">
-        <v>300</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Jessy</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>COUSIN</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Jessy.COUSIN@fr.toyota-industries.eu</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Toyota Material Handling France S.A.S.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>AUTOPILOT</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>AGV</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1404-T2-TE-1</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>705</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>BUSSY 2025 - Autopilots</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2217</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2025-10-20 13:30</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2025-10-24 12:00</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>19377</v>
-      </c>
-      <c r="B8" t="n">
-        <v>721</v>
-      </c>
-      <c r="C8" t="n">
-        <v>300</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Luc</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CHOPLIN</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Luc.CHOPLIN@fr.toyota-industries.eu</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Toyota Material Handling France S.A.S.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>AUTOPILOT</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>AGV</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1404-T2-TE-1</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>705</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>BUSSY 2025 - Autopilots</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2217</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2025-10-20 13:30</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2025-10-24 12:00</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/documents/source_publipostage.xlsx
+++ b/Datas/documents/source_publipostage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11821</v>
+        <v>11691</v>
       </c>
       <c r="B2" t="n">
         <v>1280</v>
@@ -532,17 +532,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sébastien</t>
+          <t>Romain</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GUYENNET</t>
+          <t>COUPPE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sebastien.GUYENNET@fr.toyota-industries.eu</t>
+          <t>Romain.Couppe@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -577,16 +577,16 @@
         <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-09-01 13:30</t>
+          <t>2025-09-03 13:30</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-09-02 17:30</t>
+          <t>2025-09-04 17:30</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11672</v>
+        <v>11628</v>
       </c>
       <c r="B3" t="n">
         <v>1280</v>
@@ -605,17 +605,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Michel</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BODINEAU</t>
+          <t>LAUTRIDOU</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Steven.Bodineau@fr.toyota-industries.eu</t>
+          <t>Michel.Lautridou@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -650,16 +650,16 @@
         <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-09-01 13:30</t>
+          <t>2025-09-03 13:30</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-09-02 17:30</t>
+          <t>2025-09-04 17:30</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -668,7 +668,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11027</v>
+        <v>11786</v>
       </c>
       <c r="B4" t="n">
         <v>1280</v>
@@ -678,17 +678,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>François-Xavier</t>
+          <t>Stéphane</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUBERT</t>
+          <t>VILLETTE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Francois-Xavier.Lubert@fr.toyota-industries.eu</t>
+          <t>Stephane.VILLETTE@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -723,16 +723,16 @@
         <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-09-01 13:30</t>
+          <t>2025-09-03 13:30</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-09-02 17:30</t>
+          <t>2025-09-04 17:30</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -741,7 +741,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11368</v>
+        <v>11929</v>
       </c>
       <c r="B5" t="n">
         <v>1280</v>
@@ -751,22 +751,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rémi</t>
+          <t>Hervé</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BOIZUMEAU</t>
+          <t>GUION</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>r.boizumeau@clenet-manutentionindustrie.fr</t>
+          <t>Herve.GUION@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CMI</t>
+          <t>Toyota Material Handling France S.A.S.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -796,19 +796,165 @@
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-09-01 13:30</t>
+          <t>2025-09-03 13:30</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-09-02 17:30</t>
+          <t>2025-09-04 17:30</t>
         </is>
       </c>
       <c r="Q5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11712</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C6" t="n">
+        <v>300</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Guillaume</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TREBUTIEN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Guillaume.TREBUTIEN@fr.toyota-industries.eu</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Toyota Material Handling France S.A.S.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1404-T2-TE-61</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>719</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2012</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2025-09-03 13:30</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2025-09-04 17:30</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15809</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C7" t="n">
+        <v>300</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Jean-Jacques</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MUGABE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Jean-Jacques.MUGABE@fr.toyota-industries.eu</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Toyota Material Handling France S.A.S.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1404-T2-TE-61</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>719</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2012</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2025-09-03 13:30</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2025-09-04 17:30</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Datas/documents/source_publipostage.xlsx
+++ b/Datas/documents/source_publipostage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11691</v>
+        <v>11821</v>
       </c>
       <c r="B2" t="n">
         <v>1280</v>
@@ -532,17 +532,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Romain</t>
+          <t>Sébastien</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>COUPPE</t>
+          <t>GUYENNET</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Romain.Couppe@fr.toyota-industries.eu</t>
+          <t>Sebastien.GUYENNET@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -577,16 +577,16 @@
         <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-09-03 13:30</t>
+          <t>2025-09-01 13:30</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-09-04 17:30</t>
+          <t>2025-09-02 17:30</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11628</v>
+        <v>11672</v>
       </c>
       <c r="B3" t="n">
         <v>1280</v>
@@ -605,17 +605,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Michel</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LAUTRIDOU</t>
+          <t>BODINEAU</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Michel.Lautridou@fr.toyota-industries.eu</t>
+          <t>Steven.Bodineau@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -650,16 +650,16 @@
         <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-09-03 13:30</t>
+          <t>2025-09-01 13:30</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-09-04 17:30</t>
+          <t>2025-09-02 17:30</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -668,7 +668,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11786</v>
+        <v>11027</v>
       </c>
       <c r="B4" t="n">
         <v>1280</v>
@@ -678,17 +678,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stéphane</t>
+          <t>François-Xavier</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VILLETTE</t>
+          <t>LUBERT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stephane.VILLETTE@fr.toyota-industries.eu</t>
+          <t>Francois-Xavier.Lubert@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -723,16 +723,16 @@
         <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-09-03 13:30</t>
+          <t>2025-09-01 13:30</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-09-04 17:30</t>
+          <t>2025-09-02 17:30</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -741,7 +741,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11929</v>
+        <v>11368</v>
       </c>
       <c r="B5" t="n">
         <v>1280</v>
@@ -751,22 +751,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hervé</t>
+          <t>Rémi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GUION</t>
+          <t>BOIZUMEAU</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Herve.GUION@fr.toyota-industries.eu</t>
+          <t>r.boizumeau@clenet-manutentionindustrie.fr</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Toyota Material Handling France S.A.S.</t>
+          <t>CMI</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -796,165 +796,19 @@
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-09-03 13:30</t>
+          <t>2025-09-01 13:30</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-09-04 17:30</t>
+          <t>2025-09-02 17:30</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>11712</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1280</v>
-      </c>
-      <c r="C6" t="n">
-        <v>300</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Guillaume</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>TREBUTIEN</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Guillaume.TREBUTIEN@fr.toyota-industries.eu</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Toyota Material Handling France S.A.S.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1404-T2-TE-61</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>719</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2012</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2025-09-03 13:30</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>2025-09-04 17:30</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>15809</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1280</v>
-      </c>
-      <c r="C7" t="n">
-        <v>300</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Jean-Jacques</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MUGABE</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Jean-Jacques.MUGABE@fr.toyota-industries.eu</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Toyota Material Handling France S.A.S.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1404-T2-TE-61</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>719</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2012</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2025-09-03 13:30</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2025-09-04 17:30</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Datas/documents/source_publipostage.xlsx
+++ b/Datas/documents/source_publipostage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,27 +522,27 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11821</v>
+        <v>18939</v>
       </c>
       <c r="B2" t="n">
-        <v>1280</v>
+        <v>721</v>
       </c>
       <c r="C2" t="n">
         <v>300</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sébastien</t>
+          <t>Cédrick</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GUYENNET</t>
+          <t>ODIOT</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sebastien.GUYENNET@fr.toyota-industries.eu</t>
+          <t>Cedrick.ODIOT@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -552,70 +552,70 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>AUTOPILOT</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>AGV</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1404-T2-TE-61</t>
+          <t>1404-T2-TE-1</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>BUSSY 2025 - Autopilots</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>2011</v>
+        <v>2217</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-09-01 13:30</t>
+          <t>2025-10-20 13:30</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-09-02 17:30</t>
+          <t>2025-10-24 12:00</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11672</v>
+        <v>13635</v>
       </c>
       <c r="B3" t="n">
-        <v>1280</v>
+        <v>721</v>
       </c>
       <c r="C3" t="n">
         <v>300</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Bruno</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BODINEAU</t>
+          <t>AMATO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Steven.Bodineau@fr.toyota-industries.eu</t>
+          <t>Bruno.Amato@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -625,70 +625,70 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>AUTOPILOT</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>AGV</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1404-T2-TE-61</t>
+          <t>1404-T2-TE-1</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>BUSSY 2025 - Autopilots</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>2011</v>
+        <v>2217</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-09-01 13:30</t>
+          <t>2025-10-20 13:30</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-09-02 17:30</t>
+          <t>2025-10-24 12:00</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11027</v>
+        <v>11786</v>
       </c>
       <c r="B4" t="n">
-        <v>1280</v>
+        <v>721</v>
       </c>
       <c r="C4" t="n">
         <v>300</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>François-Xavier</t>
+          <t>Stéphane</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUBERT</t>
+          <t>VILLETTE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Francois-Xavier.Lubert@fr.toyota-industries.eu</t>
+          <t>Stephane.VILLETTE@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -698,118 +698,337 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>AUTOPILOT</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>AGV</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1404-T2-TE-61</t>
+          <t>1404-T2-TE-1</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>BUSSY 2025 - Autopilots</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>2011</v>
+        <v>2217</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-09-01 13:30</t>
+          <t>2025-10-20 13:30</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-09-02 17:30</t>
+          <t>2025-10-24 12:00</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11368</v>
+        <v>11647</v>
       </c>
       <c r="B5" t="n">
-        <v>1280</v>
+        <v>721</v>
       </c>
       <c r="C5" t="n">
         <v>300</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rémi</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BOIZUMEAU</t>
+          <t>DIMOS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>r.boizumeau@clenet-manutentionindustrie.fr</t>
+          <t>Thomas.DIMOS@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CMI</t>
+          <t>Toyota Material Handling France S.A.S.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>AUTOPILOT</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>AGV</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1404-T2-TE-61</t>
+          <t>1404-T2-TE-1</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>BUSSY 2025 - Autopilots</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>2011</v>
+        <v>2217</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-09-01 13:30</t>
+          <t>2025-10-20 13:30</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-09-02 17:30</t>
+          <t>2025-10-24 12:00</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>12</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>17622</v>
+      </c>
+      <c r="B6" t="n">
+        <v>721</v>
+      </c>
+      <c r="C6" t="n">
+        <v>300</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Nicolas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>QUENTIN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nicolas.QUENTIN@fr.toyota-industries.eu</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Toyota Material Handling France S.A.S.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>AUTOPILOT</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>AGV</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1404-T2-TE-1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>705</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>BUSSY 2025 - Autopilots</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2217</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2025-10-20 13:30</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2025-10-24 12:00</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11907</v>
+      </c>
+      <c r="B7" t="n">
+        <v>721</v>
+      </c>
+      <c r="C7" t="n">
+        <v>300</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Jessy</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>COUSIN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Jessy.COUSIN@fr.toyota-industries.eu</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Toyota Material Handling France S.A.S.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>AUTOPILOT</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>AGV</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1404-T2-TE-1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>705</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>BUSSY 2025 - Autopilots</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2217</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2025-10-20 13:30</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2025-10-24 12:00</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>19377</v>
+      </c>
+      <c r="B8" t="n">
+        <v>721</v>
+      </c>
+      <c r="C8" t="n">
+        <v>300</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Luc</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CHOPLIN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Luc.CHOPLIN@fr.toyota-industries.eu</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Toyota Material Handling France S.A.S.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>AUTOPILOT</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>AGV</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1404-T2-TE-1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>705</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>BUSSY 2025 - Autopilots</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2217</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2025-10-20 13:30</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2025-10-24 12:00</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/documents/source_publipostage.xlsx
+++ b/Datas/documents/source_publipostage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11821</v>
+        <v>11784</v>
       </c>
       <c r="B2" t="n">
         <v>1280</v>
@@ -532,17 +532,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sébastien</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GUYENNET</t>
+          <t>BRULIN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sebastien.GUYENNET@fr.toyota-industries.eu</t>
+          <t>Thomas.BRULIN@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -566,27 +566,27 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>BUSSY 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-09-01 13:30</t>
+          <t>2025-09-22 13:00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-09-02 17:30</t>
+          <t>2025-09-23 17:00</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11672</v>
+        <v>11942</v>
       </c>
       <c r="B3" t="n">
         <v>1280</v>
@@ -605,17 +605,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BODINEAU</t>
+          <t>BRULIN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Steven.Bodineau@fr.toyota-industries.eu</t>
+          <t>Jonathan.BRULIN@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>BUSSY 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-09-01 13:30</t>
+          <t>2025-09-22 13:00</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-09-02 17:30</t>
+          <t>2025-09-23 17:00</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -668,7 +668,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11027</v>
+        <v>12065</v>
       </c>
       <c r="B4" t="n">
         <v>1280</v>
@@ -678,17 +678,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>François-Xavier</t>
+          <t>David</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUBERT</t>
+          <t>LOUCHART</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Francois-Xavier.Lubert@fr.toyota-industries.eu</t>
+          <t>David.LOUCHART@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -712,27 +712,27 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>BUSSY 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-09-01 13:30</t>
+          <t>2025-09-22 13:00</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-09-02 17:30</t>
+          <t>2025-09-23 17:00</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -741,7 +741,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11368</v>
+        <v>12077</v>
       </c>
       <c r="B5" t="n">
         <v>1280</v>
@@ -751,22 +751,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rémi</t>
+          <t>Fabrice</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BOIZUMEAU</t>
+          <t>CASTANIE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>r.boizumeau@clenet-manutentionindustrie.fr</t>
+          <t>Fabrice.CASTANIE@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CMI</t>
+          <t>Toyota Material Handling France S.A.S.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -785,30 +785,614 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>BUSSY 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-09-01 13:30</t>
+          <t>2025-09-22 13:00</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-09-02 17:30</t>
+          <t>2025-09-23 17:00</t>
         </is>
       </c>
       <c r="Q5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11645</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C6" t="n">
+        <v>300</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Gilles</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LAURENT</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gilles.LAURENT@fr.toyota-industries.eu</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Toyota Material Handling France S.A.S.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1404-T2-TE-61</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>717</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>BUSSY 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1997</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2025-09-22 13:00</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2025-09-23 17:00</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>13451</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C7" t="n">
+        <v>300</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Arnaud</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MORISSOT</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>a.morissot@cichy-manutention.fr</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CICHY MANUTENTION</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1404-T2-TE-61</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>717</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>BUSSY 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1997</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2025-09-22 13:00</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2025-09-23 17:00</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>15755</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C8" t="n">
+        <v>300</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Baptiste</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GAY</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Baptiste.Gay@fr.toyota-industries.eu</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Toyota Material Handling France S.A.S.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1404-T2-TE-61</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>721</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DAGNEUX 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2025-09-22 13:30</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2025-09-23 17:30</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12203</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C9" t="n">
+        <v>300</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MATHON</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Alain.MATHON@fr.toyota-industries.eu</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Toyota Material Handling France S.A.S.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1404-T2-TE-61</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>721</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DAGNEUX 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2024</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2025-09-22 13:30</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2025-09-23 17:30</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>13594</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C10" t="n">
+        <v>300</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Ludovic</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>COTTI</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ludovic.Cotti@fr.toyota-industries.eu</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Toyota Material Handling France S.A.S.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1404-T2-TE-61</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>721</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>DAGNEUX 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2025-09-22 13:30</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2025-09-23 17:30</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12051</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C11" t="n">
+        <v>300</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Jérôme</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LUBRANO</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jerome.Lubrano@fr.toyota-industries.eu</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Toyota Material Handling France S.A.S.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1404-T2-TE-61</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>721</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>DAGNEUX 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2025-09-22 13:30</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2025-09-23 17:30</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>13187</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Yoann</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DAVID</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yoann.DAVID@fr.toyota-industries.eu</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Toyota Material Handling France S.A.S.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1404-T2-TE-61</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>721</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DAGNEUX 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2024</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2025-09-22 13:30</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2025-09-23 17:30</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12105</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C13" t="n">
+        <v>300</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>GARCIA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Christian.GARCIA@fr.toyota-industries.eu</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Toyota Material Handling France S.A.S.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1404-T2-TE-61</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>721</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DAGNEUX 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2025-09-22 13:30</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2025-09-23 17:30</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Datas/documents/source_publipostage.xlsx
+++ b/Datas/documents/source_publipostage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11784</v>
+        <v>11821</v>
       </c>
       <c r="B2" t="n">
         <v>1280</v>
@@ -532,17 +532,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Sébastien</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BRULIN</t>
+          <t>GUYENNET</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Thomas.BRULIN@fr.toyota-industries.eu</t>
+          <t>Sebastien.GUYENNET@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -566,27 +566,27 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>BUSSY 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-09-22 13:00</t>
+          <t>2025-09-01 13:30</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-09-23 17:00</t>
+          <t>2025-09-02 17:30</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11942</v>
+        <v>11672</v>
       </c>
       <c r="B3" t="n">
         <v>1280</v>
@@ -605,17 +605,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BRULIN</t>
+          <t>BODINEAU</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jonathan.BRULIN@fr.toyota-industries.eu</t>
+          <t>Steven.Bodineau@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BUSSY 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-09-22 13:00</t>
+          <t>2025-09-01 13:30</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-09-23 17:00</t>
+          <t>2025-09-02 17:30</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -668,7 +668,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12065</v>
+        <v>11027</v>
       </c>
       <c r="B4" t="n">
         <v>1280</v>
@@ -678,17 +678,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>François-Xavier</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LOUCHART</t>
+          <t>LUBERT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>David.LOUCHART@fr.toyota-industries.eu</t>
+          <t>Francois-Xavier.Lubert@fr.toyota-industries.eu</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -712,27 +712,27 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BUSSY 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-09-22 13:00</t>
+          <t>2025-09-01 13:30</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-09-23 17:00</t>
+          <t>2025-09-02 17:30</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -741,7 +741,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12077</v>
+        <v>11368</v>
       </c>
       <c r="B5" t="n">
         <v>1280</v>
@@ -751,22 +751,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fabrice</t>
+          <t>Rémi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CASTANIE</t>
+          <t>BOIZUMEAU</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fabrice.CASTANIE@fr.toyota-industries.eu</t>
+          <t>r.boizumeau@clenet-manutentionindustrie.fr</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Toyota Material Handling France S.A.S.</t>
+          <t>CMI</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -785,614 +785,30 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BUSSY 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
+          <t>CARQUEFOU 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-09-22 13:00</t>
+          <t>2025-09-01 13:30</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-09-23 17:00</t>
+          <t>2025-09-02 17:30</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>11645</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1280</v>
-      </c>
-      <c r="C6" t="n">
-        <v>300</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Gilles</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LAURENT</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Gilles.LAURENT@fr.toyota-industries.eu</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Toyota Material Handling France S.A.S.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1404-T2-TE-61</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>717</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>BUSSY 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1997</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2025-09-22 13:00</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>2025-09-23 17:00</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>13451</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1280</v>
-      </c>
-      <c r="C7" t="n">
-        <v>300</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Arnaud</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MORISSOT</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>a.morissot@cichy-manutention.fr</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>CICHY MANUTENTION</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1404-T2-TE-61</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>717</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>BUSSY 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2025-09-22 13:00</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2025-09-23 17:00</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>15755</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1280</v>
-      </c>
-      <c r="C8" t="n">
-        <v>300</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Baptiste</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GAY</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Baptiste.Gay@fr.toyota-industries.eu</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Toyota Material Handling France S.A.S.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1404-T2-TE-61</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>721</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>DAGNEUX 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2024</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2025-09-22 13:30</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2025-09-23 17:30</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>12203</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1280</v>
-      </c>
-      <c r="C9" t="n">
-        <v>300</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Alain</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MATHON</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Alain.MATHON@fr.toyota-industries.eu</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Toyota Material Handling France S.A.S.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1404-T2-TE-61</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>721</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>DAGNEUX 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2024</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2025-09-22 13:30</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>2025-09-23 17:30</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>13594</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1280</v>
-      </c>
-      <c r="C10" t="n">
-        <v>300</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Ludovic</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>COTTI</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Ludovic.Cotti@fr.toyota-industries.eu</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Toyota Material Handling France S.A.S.</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1404-T2-TE-61</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>721</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>DAGNEUX 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>6</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2025-09-22 13:30</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>2025-09-23 17:30</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>12051</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1280</v>
-      </c>
-      <c r="C11" t="n">
-        <v>300</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Jérôme</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>LUBRANO</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Jerome.Lubrano@fr.toyota-industries.eu</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Toyota Material Handling France S.A.S.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1404-T2-TE-61</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>721</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>DAGNEUX 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>6</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2024</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2025-09-22 13:30</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2025-09-23 17:30</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>13187</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1280</v>
-      </c>
-      <c r="C12" t="n">
-        <v>300</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Yoann</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>DAVID</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yoann.DAVID@fr.toyota-industries.eu</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Toyota Material Handling France S.A.S.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1404-T2-TE-61</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>721</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>DAGNEUX 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>6</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2024</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2025-09-22 13:30</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2025-09-23 17:30</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12105</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1280</v>
-      </c>
-      <c r="C13" t="n">
-        <v>300</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Christian</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GARCIA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Christian.GARCIA@fr.toyota-industries.eu</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Toyota Material Handling France S.A.S.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1404-T2-TE-61</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>721</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>DAGNEUX 2025 - LITHIUM-ION TMHMS &amp; TMHMI</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>6</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2024</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>2025-09-22 13:30</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2025-09-23 17:30</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
         <v>12</v>
       </c>
     </row>
